--- a/data/trans_dic/P79$alquiler_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P79$alquiler_2023-Habitat-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.008144385903657453</v>
+        <v>0.008144385903657451</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.01326305123039857</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.00320180856370961</v>
+        <v>0.003285625605598743</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007130787134345374</v>
+        <v>0.006884398131020436</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006634483390520057</v>
+        <v>0.006092010756873966</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01745804865680556</v>
+        <v>0.0169741203010959</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02267791756692746</v>
+        <v>0.02390307163164074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01682333462043149</v>
+        <v>0.01623093709952093</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006305345055599541</v>
+        <v>0.006630847508312647</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01493453278723069</v>
+        <v>0.01567485389065324</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01316262313152962</v>
+        <v>0.01308679719188714</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02390156939861026</v>
+        <v>0.02438304419314331</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03762249921887866</v>
+        <v>0.03676848652316569</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02700259664608707</v>
+        <v>0.02693636708508078</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006646323503463759</v>
+        <v>0.007691577433973822</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008557483931862163</v>
+        <v>0.008258659423407384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009879998802704718</v>
+        <v>0.009772577679230579</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02694192139462799</v>
+        <v>0.0274099786186317</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03497874799999966</v>
+        <v>0.03458866973367683</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02481343762374723</v>
+        <v>0.02651036051813121</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.03405113241682135</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03495921111111324</v>
+        <v>0.03495921111111323</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02459122357920707</v>
+        <v>0.02349981848597878</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02419509481569587</v>
+        <v>0.02415365976640609</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02731796292807638</v>
+        <v>0.0272603511245216</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05372931225678768</v>
+        <v>0.05072412095061057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04603996026714519</v>
+        <v>0.04630280358815401</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04555341211596926</v>
+        <v>0.04339874744016537</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01457590103365021</v>
+        <v>0.01442526973404322</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01827250849051532</v>
+        <v>0.01864190778531208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01760365725130402</v>
+        <v>0.01822347946997742</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02547367789169946</v>
+        <v>0.02499793997470616</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0291271770989474</v>
+        <v>0.02963746321991267</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02531208114483181</v>
+        <v>0.02542161993336447</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2147</v>
+        <v>2203</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5083</v>
+        <v>4907</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9178</v>
+        <v>8427</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11706</v>
+        <v>11382</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>16164</v>
+        <v>17037</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23272</v>
+        <v>22452</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6435</v>
+        <v>6767</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15413</v>
+        <v>16177</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>27017</v>
+        <v>26862</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24393</v>
+        <v>24885</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38827</v>
+        <v>37945</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>55425</v>
+        <v>55289</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5110</v>
+        <v>5913</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6641</v>
+        <v>6410</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15264</v>
+        <v>15098</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20713</v>
+        <v>21073</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27147</v>
+        <v>26844</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38335</v>
+        <v>40956</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>23630</v>
+        <v>22581</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>26087</v>
+        <v>26042</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>55703</v>
+        <v>55586</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>51628</v>
+        <v>48741</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49639</v>
+        <v>49923</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>92887</v>
+        <v>88493</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>49862</v>
+        <v>49346</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>65764</v>
+        <v>67093</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>123575</v>
+        <v>127926</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>87141</v>
+        <v>85513</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>104830</v>
+        <v>106667</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>177688</v>
+        <v>178457</v>
       </c>
     </row>
     <row r="24">
